--- a/LB_effectsize_partial.xlsx
+++ b/LB_effectsize_partial.xlsx
@@ -391,13 +391,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.04211752018652203</v>
+        <v>0.04160272185345305</v>
       </c>
       <c r="C2">
         <v>0.95</v>
       </c>
       <c r="D2">
-        <v>0.004745586471113673</v>
+        <v>0.004698726587842152</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.01784099148122518</v>
+        <v>0.01890799840624604</v>
       </c>
       <c r="C3">
         <v>0.95</v>
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.0004882490219241653</v>
+        <v>0.0006382237921767186</v>
       </c>
       <c r="C4">
         <v>0.95</v>
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.02456918854193607</v>
+        <v>0.02402702841668363</v>
       </c>
       <c r="C5">
         <v>0.95</v>
